--- a/Level-II/Lecture3/mini project/data/table_metadata.xlsx
+++ b/Level-II/Lecture3/mini project/data/table_metadata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kante\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1896216\Desktop\repos\jac_bigdata\Level-II\Lecture3\mini project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C0EAE-8CA3-4143-B0A4-5BA6A11D7B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -753,7 +752,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
@@ -1152,22 +1151,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1205,7 +1204,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1261,7 +1260,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>42082</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1299,7 +1298,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1317,7 +1316,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1335,7 +1334,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1353,7 +1352,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1377,21 +1376,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1517,21 +1522,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1565,7 +1575,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1605,22 +1615,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1654,7 +1668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1688,7 +1702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1745,22 +1759,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>42737</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>42738</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>42739</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1829,7 +1843,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1840,7 +1854,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1854,7 +1868,7 @@
         <v>43120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1865,7 +1879,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>42745</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1898,7 +1912,7 @@
         <v>42746</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1920,7 +1934,7 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>42749</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>42752</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>42755</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>42756</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>42757</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>42758</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>42761</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>42762</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>42763</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>42765</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>42766</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2132,7 +2146,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2165,7 +2179,7 @@
         <v>42770</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2190,7 +2204,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -2201,7 +2215,7 @@
         <v>42773</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -2256,7 +2270,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -2267,7 +2281,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -2289,7 +2303,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -2300,7 +2314,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -2311,7 +2325,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -2322,7 +2336,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -2344,7 +2358,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -2355,7 +2369,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -2366,7 +2380,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -2377,7 +2391,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -2388,7 +2402,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>42791</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -2410,7 +2424,7 @@
         <v>42792</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -2476,7 +2490,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -2487,7 +2501,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -2498,7 +2512,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -2509,7 +2523,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -2542,7 +2556,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -2553,7 +2567,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -2564,7 +2578,7 @@
         <v>42806</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>42807</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -2586,7 +2600,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -2597,7 +2611,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -2630,7 +2644,7 @@
         <v>42812</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -2641,7 +2655,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -2652,7 +2666,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -2663,7 +2677,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -2674,7 +2688,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -2685,7 +2699,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -2696,7 +2710,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -2707,7 +2721,7 @@
         <v>42819</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>42821</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -2740,7 +2754,7 @@
         <v>42822</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -2751,7 +2765,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -2762,7 +2776,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -2773,7 +2787,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -2784,7 +2798,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -2795,7 +2809,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -2817,7 +2831,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -2834,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2844,12 +2858,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -2860,7 +2874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2882,7 +2896,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2904,7 +2918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2915,7 +2929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2943,20 +2957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -2979,7 +2995,7 @@
         <v>43101.847569444442</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>43101.848263888889</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>43101.848958333336</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3084,7 +3100,7 @@
         <v>43101.849652777775</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>43101.850347222222</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3154,7 +3170,7 @@
         <v>43101.851041666669</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -3177,7 +3193,7 @@
         <v>43101.851736111108</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -3200,7 +3216,7 @@
         <v>43101.852430555555</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3229,7 +3245,7 @@
         <v>43101.853125000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3252,7 +3268,7 @@
         <v>43101.853819444441</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3275,7 +3291,7 @@
         <v>43101.854513888888</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -3298,7 +3314,7 @@
         <v>43101.896180555559</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3333,7 +3349,7 @@
         <v>43101.896238425928</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>43101.896296296298</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -3403,7 +3419,7 @@
         <v>43101.896354166667</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>6</v>
       </c>
@@ -3438,7 +3454,7 @@
         <v>43101.896412037036</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -3473,7 +3489,7 @@
         <v>43101.896527777775</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -3502,10 +3518,10 @@
         <v>43101.896585648145</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>91</v>
       </c>
@@ -3518,10 +3534,10 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3530,10 +3546,10 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3542,10 +3558,10 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3554,10 +3570,10 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3572,29 +3588,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>101</v>
       </c>
@@ -3629,12 +3647,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>112</v>
       </c>
@@ -3657,12 +3675,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -3685,12 +3703,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>116</v>
       </c>
@@ -3722,7 +3740,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>119</v>
       </c>
@@ -3754,12 +3772,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>112</v>
       </c>
@@ -3782,12 +3800,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>112</v>
       </c>
@@ -3810,18 +3828,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>125</v>
       </c>
@@ -3829,7 +3847,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>127</v>
       </c>
@@ -3837,7 +3855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -3853,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>128</v>
       </c>
@@ -3867,21 +3885,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6C874D-B5B9-4712-A3F3-7169089D73DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>

--- a/Level-II/Lecture3/mini project/data/table_metadata.xlsx
+++ b/Level-II/Lecture3/mini project/data/table_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="235">
   <si>
     <t>Promo_code_id</t>
   </si>
@@ -307,6 +307,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Note:</t>
     </r>
@@ -315,6 +316,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> details in Trans String details tab</t>
     </r>
@@ -731,9 +733,6 @@
     <t>Product_Id</t>
   </si>
   <si>
-    <t>Loyalty_Member_Id</t>
-  </si>
-  <si>
     <t>Promo_Code_Id</t>
   </si>
   <si>
@@ -743,10 +742,13 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Amt</t>
-  </si>
-  <si>
     <t>Tx_Date</t>
+  </si>
+  <si>
+    <t>Discount_Amt</t>
+  </si>
+  <si>
+    <t>Loyalty_Member_Num</t>
   </si>
 </sst>
 </file>
@@ -757,7 +759,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -768,18 +770,27 @@
       <sz val="10"/>
       <color rgb="FFEFEFEF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +801,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF073763"/>
         <bgColor rgb="FF073763"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -820,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -838,6 +855,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,7 +1563,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2855,7 +2889,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2878,7 +2912,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2889,7 +2923,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2900,7 +2934,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2964,11 +2998,13 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3592,10 +3628,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3607,275 +3643,359 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="21">
+        <v>12</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="21">
+        <v>23</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>43101.847916666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H6" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="23">
+        <v>23</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>43101.852083333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H10" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="22">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22">
+        <v>43101.851388888892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B26" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B28" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B29" s="3">
         <v>4</v>
       </c>
     </row>
@@ -3889,14 +4009,16 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3909,23 +4031,23 @@
       <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
